--- a/Code/Results/Cases/Case_2_81/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_81/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9517216527257233</v>
+        <v>0.3709835751931791</v>
       </c>
       <c r="C2">
-        <v>0.1257213277771996</v>
+        <v>0.04126107170033322</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9211723993907981</v>
+        <v>0.6416241031824086</v>
       </c>
       <c r="F2">
-        <v>1.959694053530882</v>
+        <v>2.342192894683222</v>
       </c>
       <c r="G2">
-        <v>0.0008046971452118969</v>
+        <v>0.002438789383091667</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02353685972098241</v>
+        <v>0.050699443948659</v>
       </c>
       <c r="K2">
-        <v>0.9810888602040677</v>
+        <v>0.3357123734446077</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7183347015052561</v>
+        <v>1.41047792437346</v>
       </c>
       <c r="O2">
-        <v>1.230947082965855</v>
+        <v>2.601295450356545</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8265206910500638</v>
+        <v>0.3344821430482625</v>
       </c>
       <c r="C3">
-        <v>0.11177755367477</v>
+        <v>0.03684668311586847</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.8052376468504718</v>
+        <v>0.6144145472549383</v>
       </c>
       <c r="F3">
-        <v>1.77403919932938</v>
+        <v>2.312097614300939</v>
       </c>
       <c r="G3">
-        <v>0.0008082306421197116</v>
+        <v>0.002441048068113237</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02346547500772722</v>
+        <v>0.05111899710836276</v>
       </c>
       <c r="K3">
-        <v>0.8529434144482195</v>
+        <v>0.297491681978812</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7541662304703998</v>
+        <v>1.42571115862351</v>
       </c>
       <c r="O3">
-        <v>1.224153479612923</v>
+        <v>2.62169467694747</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7498762692079595</v>
+        <v>0.3121277024033304</v>
       </c>
       <c r="C4">
-        <v>0.1032133769430317</v>
+        <v>0.03412045392894925</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.7350099088147743</v>
+        <v>0.5980282537050527</v>
       </c>
       <c r="F4">
-        <v>1.663318910066181</v>
+        <v>2.295002006759304</v>
       </c>
       <c r="G4">
-        <v>0.0008104673233034788</v>
+        <v>0.002442507933518484</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02348414850531633</v>
+        <v>0.05140657362355405</v>
       </c>
       <c r="K4">
-        <v>0.7744152886210713</v>
+        <v>0.2740255471301793</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7772021093826496</v>
+        <v>1.435577151892058</v>
       </c>
       <c r="O4">
-        <v>1.223112810158923</v>
+        <v>2.635748338849538</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7186879967038919</v>
+        <v>0.3030330343497667</v>
       </c>
       <c r="C5">
-        <v>0.09972148412087734</v>
+        <v>0.0330055764783026</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.7066045980060522</v>
+        <v>0.5914311879223675</v>
       </c>
       <c r="F5">
-        <v>1.618956654576024</v>
+        <v>2.28838276358691</v>
       </c>
       <c r="G5">
-        <v>0.0008113960220016864</v>
+        <v>0.002443121257906567</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02350668302877601</v>
+        <v>0.05153129101502785</v>
       </c>
       <c r="K5">
-        <v>0.7424404674226821</v>
+        <v>0.2644637527077549</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7868431072200366</v>
+        <v>1.439726566072082</v>
       </c>
       <c r="O5">
-        <v>1.223437885301522</v>
+        <v>2.641859345981928</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7135115644189227</v>
+        <v>0.3015237882604822</v>
       </c>
       <c r="C6">
-        <v>0.09914150691786006</v>
+        <v>0.03282021683926928</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.7019000162079152</v>
+        <v>0.5903406080554277</v>
       </c>
       <c r="F6">
-        <v>1.611634219886668</v>
+        <v>2.287304610747341</v>
       </c>
       <c r="G6">
-        <v>0.0008115512827359437</v>
+        <v>0.002443224214214093</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02351130395885725</v>
+        <v>0.05155245464948877</v>
       </c>
       <c r="K6">
-        <v>0.73713229059355</v>
+        <v>0.2628760887832868</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7884591228728759</v>
+        <v>1.440423361332908</v>
       </c>
       <c r="O6">
-        <v>1.223536035491477</v>
+        <v>2.642897259060391</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7494554875587767</v>
+        <v>0.312004987385393</v>
       </c>
       <c r="C7">
-        <v>0.1031662934300925</v>
+        <v>0.03410543409444244</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.7346259972238585</v>
+        <v>0.5979389576405936</v>
       </c>
       <c r="F7">
-        <v>1.662717643450478</v>
+        <v>2.294911331455182</v>
       </c>
       <c r="G7">
-        <v>0.0008104797778772932</v>
+        <v>0.002442516130319012</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0234843929984887</v>
+        <v>0.05140822513752141</v>
       </c>
       <c r="K7">
-        <v>0.7739839757361153</v>
+        <v>0.2738965893873058</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7773311125555473</v>
+        <v>1.435632590245689</v>
       </c>
       <c r="O7">
-        <v>1.223114209787695</v>
+        <v>2.6358291995477</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9084967864357907</v>
+        <v>0.3583861981272207</v>
       </c>
       <c r="C8">
-        <v>0.1209132743556864</v>
+        <v>0.03974229381073258</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.8809823877377596</v>
+        <v>0.6321756576351163</v>
       </c>
       <c r="F8">
-        <v>1.894960156075058</v>
+        <v>2.331528730364894</v>
       </c>
       <c r="G8">
-        <v>0.000805901791017416</v>
+        <v>0.0024395530547347</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02349878291130203</v>
+        <v>0.05083788070540685</v>
       </c>
       <c r="K8">
-        <v>0.9368645351467535</v>
+        <v>0.3225338283303074</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7304704830891922</v>
+        <v>1.41562393583278</v>
       </c>
       <c r="O8">
-        <v>1.227931345622707</v>
+        <v>2.608011680657654</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.222825884588161</v>
+        <v>0.4497805965534099</v>
       </c>
       <c r="C9">
-        <v>0.1557571750789464</v>
+        <v>0.05066927706027968</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.176927944313874</v>
+        <v>0.7018656268820251</v>
       </c>
       <c r="F9">
-        <v>2.379553485386324</v>
+        <v>2.414334765379735</v>
       </c>
       <c r="G9">
-        <v>0.0007974394566703807</v>
+        <v>0.002434319360039165</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02406100037960712</v>
+        <v>0.04995762492756839</v>
       </c>
       <c r="K9">
-        <v>1.258116822528308</v>
+        <v>0.417907759605157</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6471031569466206</v>
+        <v>1.380454251689081</v>
       </c>
       <c r="O9">
-        <v>1.264040106186954</v>
+        <v>2.565604576294106</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.456214547580004</v>
+        <v>0.5171822692200294</v>
       </c>
       <c r="C10">
-        <v>0.1814806113879683</v>
+        <v>0.05861844684025641</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.401868773257846</v>
+        <v>0.7546411100652222</v>
       </c>
       <c r="F10">
-        <v>2.7581990446715</v>
+        <v>2.481923883268934</v>
       </c>
       <c r="G10">
-        <v>0.0007915103963163678</v>
+        <v>0.002430822306328961</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0248563008000815</v>
+        <v>0.04945668171342987</v>
       </c>
       <c r="K10">
-        <v>1.496219634217709</v>
+        <v>0.4879627256277672</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5915084729728513</v>
+        <v>1.357092514772496</v>
       </c>
       <c r="O10">
-        <v>1.309526648208646</v>
+        <v>2.541873606847503</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.56315330591417</v>
+        <v>0.547897550336387</v>
       </c>
       <c r="C11">
-        <v>0.1932339860250636</v>
+        <v>0.06221732337688479</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.506339274664299</v>
+        <v>0.7789962695346446</v>
       </c>
       <c r="F11">
-        <v>2.936547990153286</v>
+        <v>2.514148561129105</v>
       </c>
       <c r="G11">
-        <v>0.0007888695519936669</v>
+        <v>0.002429306247082938</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02531480619770576</v>
+        <v>0.0492605718854513</v>
       </c>
       <c r="K11">
-        <v>1.60522235558625</v>
+        <v>0.5198264511014088</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5675541381905838</v>
+        <v>1.347002202057642</v>
       </c>
       <c r="O11">
-        <v>1.334985346552145</v>
+        <v>2.532695250060357</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.603779403791748</v>
+        <v>0.5595360013955997</v>
       </c>
       <c r="C12">
-        <v>0.1976943042451893</v>
+        <v>0.06357760466171669</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.546254544272344</v>
+        <v>0.7882691066418062</v>
       </c>
       <c r="F12">
-        <v>3.005069621438707</v>
+        <v>2.526564409299397</v>
       </c>
       <c r="G12">
-        <v>0.0007878770869920171</v>
+        <v>0.002428742849451242</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02550358733516234</v>
+        <v>0.04919088931589499</v>
       </c>
       <c r="K12">
-        <v>1.646618528210752</v>
+        <v>0.5318913752438448</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5586853311678652</v>
+        <v>1.343258493814762</v>
       </c>
       <c r="O12">
-        <v>1.345370163484404</v>
+        <v>2.529452572508262</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.595023695132227</v>
+        <v>0.5570291388532098</v>
       </c>
       <c r="C13">
-        <v>0.1967332328825933</v>
+        <v>0.06328475738919792</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.537641521549517</v>
+        <v>0.7862698065650022</v>
       </c>
       <c r="F13">
-        <v>2.990266648170092</v>
+        <v>2.523880949916133</v>
       </c>
       <c r="G13">
-        <v>0.0007880905045419048</v>
+        <v>0.002428863712102495</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02546223494256239</v>
+        <v>0.04920569282917242</v>
       </c>
       <c r="K13">
-        <v>1.637697479854637</v>
+        <v>0.529293038447662</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5605862273016946</v>
+        <v>1.344061330812629</v>
       </c>
       <c r="O13">
-        <v>1.343099525854313</v>
+        <v>2.530140572727902</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.56649289863492</v>
+        <v>0.5488549105322988</v>
       </c>
       <c r="C14">
-        <v>0.1936007342603432</v>
+        <v>0.06232928566485896</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.509615740612787</v>
+        <v>0.7797581473070636</v>
       </c>
       <c r="F14">
-        <v>2.942164919470798</v>
+        <v>2.515165747352256</v>
       </c>
       <c r="G14">
-        <v>0.0007887877530075644</v>
+        <v>0.002429259681758042</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.02533002609203905</v>
+        <v>0.04925474720448975</v>
       </c>
       <c r="K14">
-        <v>1.608625532688052</v>
+        <v>0.5208190661900289</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5668203838434032</v>
+        <v>1.346692655963452</v>
       </c>
       <c r="O14">
-        <v>1.335824444734669</v>
+        <v>2.532423801453945</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.549034609752368</v>
+        <v>0.5438488873928691</v>
       </c>
       <c r="C15">
-        <v>0.1916833019245701</v>
+        <v>0.06174369983742167</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.492496765943287</v>
+        <v>0.7757760918106982</v>
       </c>
       <c r="F15">
-        <v>2.912832822283889</v>
+        <v>2.50985519662791</v>
       </c>
       <c r="G15">
-        <v>0.0007892158064413326</v>
+        <v>0.002429503616750511</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02525105676853201</v>
+        <v>0.04928539120733433</v>
       </c>
       <c r="K15">
-        <v>1.590834278724003</v>
+        <v>0.5156283450379533</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5706656257602667</v>
+        <v>1.34831448339337</v>
       </c>
       <c r="O15">
-        <v>1.331466980797643</v>
+        <v>2.533852697453824</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.449243006653035</v>
+        <v>0.5151759945272829</v>
       </c>
       <c r="C16">
-        <v>0.1807137185551113</v>
+        <v>0.05838290007856983</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.395088373236788</v>
+        <v>0.7530564425701272</v>
       </c>
       <c r="F16">
-        <v>2.746675254233907</v>
+        <v>2.479847711283838</v>
       </c>
       <c r="G16">
-        <v>0.000791684070298379</v>
+        <v>0.002430922884668263</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.02482838690932354</v>
+        <v>0.04947013823903745</v>
       </c>
       <c r="K16">
-        <v>1.489111593106401</v>
+        <v>0.4858802193305962</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5931016725738445</v>
+        <v>1.357762751271576</v>
       </c>
       <c r="O16">
-        <v>1.307963695677813</v>
+        <v>2.542506010008992</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.388234875236321</v>
+        <v>0.4975995488530316</v>
       </c>
       <c r="C17">
-        <v>0.1739989241791307</v>
+        <v>0.0563167026403022</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.335912092384902</v>
+        <v>0.739207718317104</v>
       </c>
       <c r="F17">
-        <v>2.646379034103063</v>
+        <v>2.461818023542463</v>
       </c>
       <c r="G17">
-        <v>0.0007932123271868914</v>
+        <v>0.002431812673361899</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.02459472026643539</v>
+        <v>0.04959162003392237</v>
       </c>
       <c r="K17">
-        <v>1.426898214608315</v>
+        <v>0.4676291577730751</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6072145741680828</v>
+        <v>1.363696542726796</v>
       </c>
       <c r="O17">
-        <v>1.294806407175088</v>
+        <v>2.548229002012278</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.353215703071726</v>
+        <v>0.4874951482255199</v>
       </c>
       <c r="C18">
-        <v>0.1701414738747502</v>
+        <v>0.05512666108114672</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.302074219126197</v>
+        <v>0.7312749831198886</v>
       </c>
       <c r="F18">
-        <v>2.589258590433786</v>
+        <v>2.451586913571077</v>
       </c>
       <c r="G18">
-        <v>0.0007940966748500127</v>
+        <v>0.002432331496853083</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02446934459334571</v>
+        <v>0.04966448298173631</v>
       </c>
       <c r="K18">
-        <v>1.391178228435564</v>
+        <v>0.4571312246064281</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6154570451862291</v>
+        <v>1.367160050163566</v>
       </c>
       <c r="O18">
-        <v>1.287683565868292</v>
+        <v>2.551672886603995</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.341370436590694</v>
+        <v>0.4840748644093367</v>
       </c>
       <c r="C19">
-        <v>0.1688361565316114</v>
+        <v>0.0547234570258297</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.290650095718064</v>
+        <v>0.7285947052484687</v>
       </c>
       <c r="F19">
-        <v>2.570012905982253</v>
+        <v>2.448146708526963</v>
       </c>
       <c r="G19">
-        <v>0.000794397031691435</v>
+        <v>0.002432508372076557</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0244284079389665</v>
+        <v>0.04968966628954163</v>
       </c>
       <c r="K19">
-        <v>1.379094373879383</v>
+        <v>0.4535767508055244</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6182689956484388</v>
+        <v>1.368341414520199</v>
       </c>
       <c r="O19">
-        <v>1.285346587551061</v>
+        <v>2.552865048676551</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.394721796760081</v>
+        <v>0.4994700667629388</v>
       </c>
       <c r="C20">
-        <v>0.1747132219539083</v>
+        <v>0.05653682089661061</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.342190616780456</v>
+        <v>0.7406785550386275</v>
       </c>
       <c r="F20">
-        <v>2.656996278467886</v>
+        <v>2.463722915574948</v>
       </c>
       <c r="G20">
-        <v>0.000793049093193885</v>
+        <v>0.002431717225462297</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02461865190414514</v>
+        <v>0.04957837857180891</v>
       </c>
       <c r="K20">
-        <v>1.433514221698459</v>
+        <v>0.4695720600849427</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6056992133294941</v>
+        <v>1.363059648691916</v>
       </c>
       <c r="O20">
-        <v>1.296160568406862</v>
+        <v>2.547604027379577</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.574869369109507</v>
+        <v>0.5512556871133825</v>
       </c>
       <c r="C21">
-        <v>0.1945205471766656</v>
+        <v>0.06261000011963347</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.517837577600247</v>
+        <v>0.7816694196979768</v>
       </c>
       <c r="F21">
-        <v>2.956265931941829</v>
+        <v>2.517719826990799</v>
       </c>
       <c r="G21">
-        <v>0.000788582753322514</v>
+        <v>0.002429143086064499</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02536843727758153</v>
+        <v>0.04924021435665438</v>
       </c>
       <c r="K21">
-        <v>1.617161263487588</v>
+        <v>0.5233081132732309</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5649836899809202</v>
+        <v>1.345917674401299</v>
       </c>
       <c r="O21">
-        <v>1.337940625088407</v>
+        <v>2.531746835601041</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.693378665047504</v>
+        <v>0.5851425503008727</v>
       </c>
       <c r="C22">
-        <v>0.2075227129709702</v>
+        <v>0.06656437119490022</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.634724532090559</v>
+        <v>0.8087512049689565</v>
       </c>
       <c r="F22">
-        <v>3.15765304098241</v>
+        <v>2.55425206365922</v>
       </c>
       <c r="G22">
-        <v>0.0007857075615658161</v>
+        <v>0.002427523088504913</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.02594745617343719</v>
+        <v>0.04904590529783448</v>
       </c>
       <c r="K22">
-        <v>1.737890700593255</v>
+        <v>0.5584206323229921</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5395574075352449</v>
+        <v>1.335164839997486</v>
       </c>
       <c r="O22">
-        <v>1.36961451102033</v>
+        <v>2.522741362708814</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.630050256384095</v>
+        <v>0.5670528231289893</v>
       </c>
       <c r="C23">
-        <v>0.200577238764609</v>
+        <v>0.06445522180383989</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.572131876846953</v>
+        <v>0.7942703981889991</v>
       </c>
       <c r="F23">
-        <v>3.049600388400364</v>
+        <v>2.534640292894608</v>
       </c>
       <c r="G23">
-        <v>0.000787238282775104</v>
+        <v>0.002428382023034784</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02562984060316253</v>
+        <v>0.04914716484699611</v>
       </c>
       <c r="K23">
-        <v>1.673383444932796</v>
+        <v>0.5396812383000054</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5530160673755518</v>
+        <v>1.340862599103456</v>
       </c>
       <c r="O23">
-        <v>1.35228923732393</v>
+        <v>2.52742333690901</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.391788889056528</v>
+        <v>0.4986244039197345</v>
       </c>
       <c r="C24">
-        <v>0.1743902788247311</v>
+        <v>0.0564373121483186</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.339351528221485</v>
+        <v>0.7400134991837746</v>
       </c>
       <c r="F24">
-        <v>2.652194544606374</v>
+        <v>2.46286129527752</v>
       </c>
       <c r="G24">
-        <v>0.0007931228733597777</v>
+        <v>0.002431760354825683</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.02460780458789813</v>
+        <v>0.04958435562572561</v>
       </c>
       <c r="K24">
-        <v>1.430522979026279</v>
+        <v>0.4686936899676084</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6063839076095228</v>
+        <v>1.363347426221313</v>
       </c>
       <c r="O24">
-        <v>1.295546981452304</v>
+        <v>2.54788609979235</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.137434630431102</v>
+        <v>0.4250102948025472</v>
       </c>
       <c r="C25">
-        <v>0.1463168723986144</v>
+        <v>0.04772698157995592</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.095707809178165</v>
+        <v>0.6827375343862201</v>
       </c>
       <c r="F25">
-        <v>2.244860227532925</v>
+        <v>2.39075123991968</v>
       </c>
       <c r="G25">
-        <v>0.0007996761633444713</v>
+        <v>0.00243567382124352</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02384613765581811</v>
+        <v>0.0501701986288694</v>
       </c>
       <c r="K25">
-        <v>1.170917956743892</v>
+        <v>0.3921084250988827</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6686980893541694</v>
+        <v>1.389533384779259</v>
       </c>
       <c r="O25">
-        <v>1.251149698813506</v>
+        <v>2.575774480155644</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_81/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_81/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3709835751931791</v>
+        <v>0.951721652725638</v>
       </c>
       <c r="C2">
-        <v>0.04126107170033322</v>
+        <v>0.1257213277772991</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.6416241031824086</v>
+        <v>0.9211723993907981</v>
       </c>
       <c r="F2">
-        <v>2.342192894683222</v>
+        <v>1.959694053530882</v>
       </c>
       <c r="G2">
-        <v>0.002438789383091667</v>
+        <v>0.0008046971452721557</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.050699443948659</v>
+        <v>0.02353685972098241</v>
       </c>
       <c r="K2">
-        <v>0.3357123734446077</v>
+        <v>0.9810888602040677</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.41047792437346</v>
+        <v>0.7183347015052597</v>
       </c>
       <c r="O2">
-        <v>2.601295450356545</v>
+        <v>1.23094708296577</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3344821430482625</v>
+        <v>0.8265206910500353</v>
       </c>
       <c r="C3">
-        <v>0.03684668311586847</v>
+        <v>0.1117775536750685</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.6144145472549383</v>
+        <v>0.8052376468504718</v>
       </c>
       <c r="F3">
-        <v>2.312097614300939</v>
+        <v>1.774039199329366</v>
       </c>
       <c r="G3">
-        <v>0.002441048068113237</v>
+        <v>0.0008082306421188354</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05111899710836276</v>
+        <v>0.0234654750077592</v>
       </c>
       <c r="K3">
-        <v>0.297491681978812</v>
+        <v>0.8529434144481911</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.42571115862351</v>
+        <v>0.7541662304703962</v>
       </c>
       <c r="O3">
-        <v>2.62169467694747</v>
+        <v>1.224153479612909</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3121277024033304</v>
+        <v>0.7498762692079879</v>
       </c>
       <c r="C4">
-        <v>0.03412045392894925</v>
+        <v>0.1032133769429748</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5980282537050527</v>
+        <v>0.7350099088147886</v>
       </c>
       <c r="F4">
-        <v>2.295002006759304</v>
+        <v>1.663318910066181</v>
       </c>
       <c r="G4">
-        <v>0.002442507933518484</v>
+        <v>0.000810467323362205</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05140657362355405</v>
+        <v>0.02348414850526304</v>
       </c>
       <c r="K4">
-        <v>0.2740255471301793</v>
+        <v>0.7744152886210998</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.435577151892058</v>
+        <v>0.7772021093825821</v>
       </c>
       <c r="O4">
-        <v>2.635748338849538</v>
+        <v>1.223112810158923</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3030330343497667</v>
+        <v>0.7186879967038919</v>
       </c>
       <c r="C5">
-        <v>0.0330055764783026</v>
+        <v>0.09972148412094839</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.5914311879223675</v>
+        <v>0.7066045980060807</v>
       </c>
       <c r="F5">
-        <v>2.28838276358691</v>
+        <v>1.618956654576024</v>
       </c>
       <c r="G5">
-        <v>0.002443121257906567</v>
+        <v>0.0008113960219437237</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05153129101502785</v>
+        <v>0.02350668302878134</v>
       </c>
       <c r="K5">
-        <v>0.2644637527077549</v>
+        <v>0.7424404674227389</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.439726566072082</v>
+        <v>0.7868431072199726</v>
       </c>
       <c r="O5">
-        <v>2.641859345981928</v>
+        <v>1.223437885301436</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3015237882604822</v>
+        <v>0.7135115644189227</v>
       </c>
       <c r="C6">
-        <v>0.03282021683926928</v>
+        <v>0.09914150691786006</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.5903406080554277</v>
+        <v>0.7019000162078726</v>
       </c>
       <c r="F6">
-        <v>2.287304610747341</v>
+        <v>1.611634219886668</v>
       </c>
       <c r="G6">
-        <v>0.002443224214214093</v>
+        <v>0.0008115512827196384</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05155245464948877</v>
+        <v>0.02351130395875245</v>
       </c>
       <c r="K6">
-        <v>0.2628760887832868</v>
+        <v>0.7371322905934363</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.440423361332908</v>
+        <v>0.7884591228728688</v>
       </c>
       <c r="O6">
-        <v>2.642897259060391</v>
+        <v>1.223536035491463</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.312004987385393</v>
+        <v>0.7494554875588051</v>
       </c>
       <c r="C7">
-        <v>0.03410543409444244</v>
+        <v>0.1031662934300783</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.5979389576405936</v>
+        <v>0.7346259972238869</v>
       </c>
       <c r="F7">
-        <v>2.294911331455182</v>
+        <v>1.662717643450478</v>
       </c>
       <c r="G7">
-        <v>0.002442516130319012</v>
+        <v>0.0008104797778444246</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05140822513752141</v>
+        <v>0.02348439299849225</v>
       </c>
       <c r="K7">
-        <v>0.2738965893873058</v>
+        <v>0.7739839757361153</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.435632590245689</v>
+        <v>0.7773311125555971</v>
       </c>
       <c r="O7">
-        <v>2.6358291995477</v>
+        <v>1.223114209787681</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3583861981272207</v>
+        <v>0.9084967864357623</v>
       </c>
       <c r="C8">
-        <v>0.03974229381073258</v>
+        <v>0.120913274355587</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.6321756576351163</v>
+        <v>0.8809823877377454</v>
       </c>
       <c r="F8">
-        <v>2.331528730364894</v>
+        <v>1.894960156075058</v>
       </c>
       <c r="G8">
-        <v>0.0024395530547347</v>
+        <v>0.0008059017910180481</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05083788070540685</v>
+        <v>0.02349878291129315</v>
       </c>
       <c r="K8">
-        <v>0.3225338283303074</v>
+        <v>0.9368645351467251</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.41562393583278</v>
+        <v>0.7304704830891779</v>
       </c>
       <c r="O8">
-        <v>2.608011680657654</v>
+        <v>1.227931345622679</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4497805965534099</v>
+        <v>1.222825884588019</v>
       </c>
       <c r="C9">
-        <v>0.05066927706027968</v>
+        <v>0.1557571750789606</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.7018656268820251</v>
+        <v>1.176927944313903</v>
       </c>
       <c r="F9">
-        <v>2.414334765379735</v>
+        <v>2.379553485386353</v>
       </c>
       <c r="G9">
-        <v>0.002434319360039165</v>
+        <v>0.0007974394567289593</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04995762492756839</v>
+        <v>0.02406100037950409</v>
       </c>
       <c r="K9">
-        <v>0.417907759605157</v>
+        <v>1.258116822528393</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.380454251689081</v>
+        <v>0.6471031569466277</v>
       </c>
       <c r="O9">
-        <v>2.565604576294106</v>
+        <v>1.264040106186897</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5171822692200294</v>
+        <v>1.456214547580146</v>
       </c>
       <c r="C10">
-        <v>0.05861844684025641</v>
+        <v>0.1814806113878831</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.7546411100652222</v>
+        <v>1.401868773257888</v>
       </c>
       <c r="F10">
-        <v>2.481923883268934</v>
+        <v>2.7581990446715</v>
       </c>
       <c r="G10">
-        <v>0.002430822306328961</v>
+        <v>0.0007915103963745912</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04945668171342987</v>
+        <v>0.02485630080002821</v>
       </c>
       <c r="K10">
-        <v>0.4879627256277672</v>
+        <v>1.496219634217738</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.357092514772496</v>
+        <v>0.5915084729728513</v>
       </c>
       <c r="O10">
-        <v>2.541873606847503</v>
+        <v>1.309526648208617</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.547897550336387</v>
+        <v>1.563153305914227</v>
       </c>
       <c r="C11">
-        <v>0.06221732337688479</v>
+        <v>0.1932339860252199</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.7789962695346446</v>
+        <v>1.506339274664285</v>
       </c>
       <c r="F11">
-        <v>2.514148561129105</v>
+        <v>2.936547990153258</v>
       </c>
       <c r="G11">
-        <v>0.002429306247082938</v>
+        <v>0.0007888695520884315</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0492605718854513</v>
+        <v>0.02531480619772353</v>
       </c>
       <c r="K11">
-        <v>0.5198264511014088</v>
+        <v>1.60522235558625</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.347002202057642</v>
+        <v>0.5675541381905767</v>
       </c>
       <c r="O11">
-        <v>2.532695250060357</v>
+        <v>1.334985346552173</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5595360013955997</v>
+        <v>1.603779403791776</v>
       </c>
       <c r="C12">
-        <v>0.06357760466171669</v>
+        <v>0.1976943042452319</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7882691066418062</v>
+        <v>1.54625454427233</v>
       </c>
       <c r="F12">
-        <v>2.526564409299397</v>
+        <v>3.005069621438707</v>
       </c>
       <c r="G12">
-        <v>0.002428742849451242</v>
+        <v>0.0007878770870150017</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.04919088931589499</v>
+        <v>0.0255035873351126</v>
       </c>
       <c r="K12">
-        <v>0.5318913752438448</v>
+        <v>1.646618528210752</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.343258493814762</v>
+        <v>0.5586853311678688</v>
       </c>
       <c r="O12">
-        <v>2.529452572508262</v>
+        <v>1.345370163484404</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5570291388532098</v>
+        <v>1.595023695132085</v>
       </c>
       <c r="C13">
-        <v>0.06328475738919792</v>
+        <v>0.1967332328825933</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.7862698065650022</v>
+        <v>1.537641521549531</v>
       </c>
       <c r="F13">
-        <v>2.523880949916133</v>
+        <v>2.990266648170092</v>
       </c>
       <c r="G13">
-        <v>0.002428863712102495</v>
+        <v>0.0007880905045780425</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.04920569282917242</v>
+        <v>0.02546223494255884</v>
       </c>
       <c r="K13">
-        <v>0.529293038447662</v>
+        <v>1.63769747985458</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.344061330812629</v>
+        <v>0.5605862273017372</v>
       </c>
       <c r="O13">
-        <v>2.530140572727902</v>
+        <v>1.343099525854257</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5488549105322988</v>
+        <v>1.566492898634806</v>
       </c>
       <c r="C14">
-        <v>0.06232928566485896</v>
+        <v>0.1936007342603574</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.7797581473070636</v>
+        <v>1.509615740612773</v>
       </c>
       <c r="F14">
-        <v>2.515165747352256</v>
+        <v>2.942164919470883</v>
       </c>
       <c r="G14">
-        <v>0.002429259681758042</v>
+        <v>0.0007887877529501698</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.04925474720448975</v>
+        <v>0.02533002609216339</v>
       </c>
       <c r="K14">
-        <v>0.5208190661900289</v>
+        <v>1.608625532687938</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.346692655963452</v>
+        <v>0.5668203838433392</v>
       </c>
       <c r="O14">
-        <v>2.532423801453945</v>
+        <v>1.335824444734556</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5438488873928691</v>
+        <v>1.549034609752482</v>
       </c>
       <c r="C15">
-        <v>0.06174369983742167</v>
+        <v>0.1916833019246411</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.7757760918106982</v>
+        <v>1.492496765943258</v>
       </c>
       <c r="F15">
-        <v>2.50985519662791</v>
+        <v>2.912832822283946</v>
       </c>
       <c r="G15">
-        <v>0.002429503616750511</v>
+        <v>0.0007892158064415143</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.04928539120733433</v>
+        <v>0.02525105676849293</v>
       </c>
       <c r="K15">
-        <v>0.5156283450379533</v>
+        <v>1.590834278723946</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.34831448339337</v>
+        <v>0.5706656257603306</v>
       </c>
       <c r="O15">
-        <v>2.533852697453824</v>
+        <v>1.331466980797643</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5151759945272829</v>
+        <v>1.449243006653063</v>
       </c>
       <c r="C16">
-        <v>0.05838290007856983</v>
+        <v>0.1807137185554097</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.7530564425701272</v>
+        <v>1.395088373236788</v>
       </c>
       <c r="F16">
-        <v>2.479847711283838</v>
+        <v>2.746675254233907</v>
       </c>
       <c r="G16">
-        <v>0.002430922884668263</v>
+        <v>0.0007916840702783168</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.04947013823903745</v>
+        <v>0.02482838690938749</v>
       </c>
       <c r="K16">
-        <v>0.4858802193305962</v>
+        <v>1.4891115931066</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.357762751271576</v>
+        <v>0.5931016725739084</v>
       </c>
       <c r="O16">
-        <v>2.542506010008992</v>
+        <v>1.30796369567787</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4975995488530316</v>
+        <v>1.388234875236293</v>
       </c>
       <c r="C17">
-        <v>0.0563167026403022</v>
+        <v>0.1739989241789885</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.739207718317104</v>
+        <v>1.335912092384874</v>
       </c>
       <c r="F17">
-        <v>2.461818023542463</v>
+        <v>2.646379034103063</v>
       </c>
       <c r="G17">
-        <v>0.002431812673361899</v>
+        <v>0.0007932123271296443</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.04959162003392237</v>
+        <v>0.02459472026637854</v>
       </c>
       <c r="K17">
-        <v>0.4676291577730751</v>
+        <v>1.426898214608087</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.363696542726796</v>
+        <v>0.6072145741680721</v>
       </c>
       <c r="O17">
-        <v>2.548229002012278</v>
+        <v>1.294806407175031</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4874951482255199</v>
+        <v>1.353215703071839</v>
       </c>
       <c r="C18">
-        <v>0.05512666108114672</v>
+        <v>0.1701414738748213</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.7312749831198886</v>
+        <v>1.302074219126212</v>
       </c>
       <c r="F18">
-        <v>2.451586913571077</v>
+        <v>2.589258590433758</v>
       </c>
       <c r="G18">
-        <v>0.002432331496853083</v>
+        <v>0.000794096674829953</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04966448298173631</v>
+        <v>0.02446934459340255</v>
       </c>
       <c r="K18">
-        <v>0.4571312246064281</v>
+        <v>1.391178228435621</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.367160050163566</v>
+        <v>0.6154570451862291</v>
       </c>
       <c r="O18">
-        <v>2.551672886603995</v>
+        <v>1.287683565868235</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4840748644093367</v>
+        <v>1.341370436590807</v>
       </c>
       <c r="C19">
-        <v>0.0547234570258297</v>
+        <v>0.1688361565314551</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.7285947052484687</v>
+        <v>1.290650095718078</v>
       </c>
       <c r="F19">
-        <v>2.448146708526963</v>
+        <v>2.570012905982253</v>
       </c>
       <c r="G19">
-        <v>0.002432508372076557</v>
+        <v>0.0007943970315751271</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04968966628954163</v>
+        <v>0.0244284079389665</v>
       </c>
       <c r="K19">
-        <v>0.4535767508055244</v>
+        <v>1.379094373879241</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.368341414520199</v>
+        <v>0.6182689956483713</v>
       </c>
       <c r="O19">
-        <v>2.552865048676551</v>
+        <v>1.285346587551061</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4994700667629388</v>
+        <v>1.394721796759939</v>
       </c>
       <c r="C20">
-        <v>0.05653682089661061</v>
+        <v>0.1747132219536809</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.7406785550386275</v>
+        <v>1.342190616780471</v>
       </c>
       <c r="F20">
-        <v>2.463722915574948</v>
+        <v>2.656996278467886</v>
       </c>
       <c r="G20">
-        <v>0.002431717225462297</v>
+        <v>0.0007930490931927789</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.04957837857180891</v>
+        <v>0.02461865190408119</v>
       </c>
       <c r="K20">
-        <v>0.4695720600849427</v>
+        <v>1.433514221698488</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.363059648691916</v>
+        <v>0.6056992133294798</v>
       </c>
       <c r="O20">
-        <v>2.547604027379577</v>
+        <v>1.296160568406918</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5512556871133825</v>
+        <v>1.574869369109535</v>
       </c>
       <c r="C21">
-        <v>0.06261000011963347</v>
+        <v>0.1945205471764524</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.7816694196979768</v>
+        <v>1.51783757760019</v>
       </c>
       <c r="F21">
-        <v>2.517719826990799</v>
+        <v>2.956265931941829</v>
       </c>
       <c r="G21">
-        <v>0.002429143086064499</v>
+        <v>0.0007885827533446974</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.04924021435665438</v>
+        <v>0.0253684372774643</v>
       </c>
       <c r="K21">
-        <v>0.5233081132732309</v>
+        <v>1.617161263487588</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.345917674401299</v>
+        <v>0.5649836899809308</v>
       </c>
       <c r="O21">
-        <v>2.531746835601041</v>
+        <v>1.337940625088407</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5851425503008727</v>
+        <v>1.69337866504722</v>
       </c>
       <c r="C22">
-        <v>0.06656437119490022</v>
+        <v>0.2075227129708139</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.8087512049689565</v>
+        <v>1.63472453209053</v>
       </c>
       <c r="F22">
-        <v>2.55425206365922</v>
+        <v>3.15765304098241</v>
       </c>
       <c r="G22">
-        <v>0.002427523088504913</v>
+        <v>0.0007857075615658716</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.04904590529783448</v>
+        <v>0.02594745617343364</v>
       </c>
       <c r="K22">
-        <v>0.5584206323229921</v>
+        <v>1.737890700593312</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.335164839997486</v>
+        <v>0.5395574075353089</v>
       </c>
       <c r="O22">
-        <v>2.522741362708814</v>
+        <v>1.36961451102033</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5670528231289893</v>
+        <v>1.630050256384123</v>
       </c>
       <c r="C23">
-        <v>0.06445522180383989</v>
+        <v>0.2005772387646516</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.7942703981889991</v>
+        <v>1.572131876846996</v>
       </c>
       <c r="F23">
-        <v>2.534640292894608</v>
+        <v>3.049600388400393</v>
       </c>
       <c r="G23">
-        <v>0.002428382023034784</v>
+        <v>0.0007872382828108889</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.04914716484699611</v>
+        <v>0.02562984060321583</v>
       </c>
       <c r="K23">
-        <v>0.5396812383000054</v>
+        <v>1.673383444932739</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.340862599103456</v>
+        <v>0.5530160673754807</v>
       </c>
       <c r="O23">
-        <v>2.52742333690901</v>
+        <v>1.352289237323902</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4986244039197345</v>
+        <v>1.391788889056699</v>
       </c>
       <c r="C24">
-        <v>0.0564373121483186</v>
+        <v>0.1743902788249727</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.7400134991837746</v>
+        <v>1.339351528221471</v>
       </c>
       <c r="F24">
-        <v>2.46286129527752</v>
+        <v>2.652194544606374</v>
       </c>
       <c r="G24">
-        <v>0.002431760354825683</v>
+        <v>0.0007931228733601304</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.04958435562572561</v>
+        <v>0.02460780458801182</v>
       </c>
       <c r="K24">
-        <v>0.4686936899676084</v>
+        <v>1.430522979026449</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.363347426221313</v>
+        <v>0.6063839076095228</v>
       </c>
       <c r="O24">
-        <v>2.54788609979235</v>
+        <v>1.295546981452361</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4250102948025472</v>
+        <v>1.137434630431102</v>
       </c>
       <c r="C25">
-        <v>0.04772698157995592</v>
+        <v>0.1463168723986854</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.6827375343862201</v>
+        <v>1.09570780917818</v>
       </c>
       <c r="F25">
-        <v>2.39075123991968</v>
+        <v>2.244860227532925</v>
       </c>
       <c r="G25">
-        <v>0.00243567382124352</v>
+        <v>0.0007996761633442813</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.0501701986288694</v>
+        <v>0.02384613765581456</v>
       </c>
       <c r="K25">
-        <v>0.3921084250988827</v>
+        <v>1.170917956743921</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.389533384779259</v>
+        <v>0.668698089354212</v>
       </c>
       <c r="O25">
-        <v>2.575774480155644</v>
+        <v>1.251149698813492</v>
       </c>
     </row>
   </sheetData>
